--- a/data/income_statement/2digits/size/68_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/68_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>68-Real estate activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>68-Real estate activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,1112 +841,1257 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>853931.02178</v>
+        <v>1271519.9967</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>969122.58487</v>
+        <v>1499601.27731</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1410656.8966</v>
+        <v>2101579.40287</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1535351.11958</v>
+        <v>2323330.87506</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>2019101.87873</v>
+        <v>3367178.93934</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2497423.14349</v>
+        <v>4012153.00736</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2845686.27712</v>
+        <v>4310496.428090001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3384283.24206</v>
+        <v>5083488.24424</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>4033836.54015</v>
+        <v>5938510.31341</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6068914.843979999</v>
+        <v>11104466.2343</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>6524882.30104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10653000.90962</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>12335928.758</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>728628.95647</v>
+        <v>1115895.5162</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>838829.80524</v>
+        <v>1331250.12322</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1234291.21071</v>
+        <v>1877728.76711</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1362901.06306</v>
+        <v>2100271.33407</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1798441.99585</v>
+        <v>3093312.26526</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2222463.7485</v>
+        <v>3633080.16811</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2524881.02794</v>
+        <v>3928450.88983</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3012835.74349</v>
+        <v>4681358.39839</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3717450.07854</v>
+        <v>5534646.017070001</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5531880.9802</v>
+        <v>10432881.63555</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6090230.369100001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10100776.86148</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>11745041.586</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>21382.7167</v>
+        <v>16533.00088</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>15354.04919</v>
+        <v>6625.7635</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>39869.07904</v>
+        <v>62806.90437</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>39596.26154</v>
+        <v>33501.43519</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>31528.65453</v>
+        <v>76656.30473999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>75762.05250999999</v>
+        <v>66085.66958</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>56674.29751999999</v>
+        <v>50350.72195000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>84938.1909</v>
+        <v>98188.25598999999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>104854.29845</v>
+        <v>107128.882</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>168692.91182</v>
+        <v>231243.70926</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>64811.7127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>181195.24601</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>58373.843</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>103919.34861</v>
+        <v>139091.47962</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>114938.73044</v>
+        <v>161725.39059</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>136496.60685</v>
+        <v>161043.73139</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>132853.79498</v>
+        <v>189558.1058</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>189131.22835</v>
+        <v>197210.36934</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>199197.34248</v>
+        <v>312987.16967</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>264130.95166</v>
+        <v>331694.8163100001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>286509.30767</v>
+        <v>303941.58986</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>211532.16316</v>
+        <v>296735.41434</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>368340.95196</v>
+        <v>440340.88949</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>369840.21924</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>371028.80213</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>532513.329</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>28838.90307</v>
+        <v>44813.81983000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>18646.16434</v>
+        <v>36471.00003</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>20127.45341</v>
+        <v>39256.0125</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>21299.46421</v>
+        <v>47301.70535</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>18875.94349</v>
+        <v>44579.36316</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>46168.21948000001</v>
+        <v>85989.92054000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>74739.01316</v>
+        <v>153669.46419</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>99133.10850999999</v>
+        <v>177366.20277</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>129691.3374</v>
+        <v>243158.52621</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>191828.48861</v>
+        <v>563519.64327</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>198584.86338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>542785.0129</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>1410732.239</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>9697.56654</v>
+        <v>20692.69276999999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>5850.632390000001</v>
+        <v>16801.17223</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>9991.44894</v>
+        <v>22155.97944</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>11197.76262</v>
+        <v>19458.45217</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>10193.56506</v>
+        <v>20574.12475</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>28112.15889</v>
+        <v>47456.86358</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>55738.53505</v>
+        <v>87964.72345999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>79915.28</v>
+        <v>122196.85551</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>102996.2296</v>
+        <v>170218.27587</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>121192.56231</v>
+        <v>392408.05422</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>124274.09134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>290293.80011</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>577764.571</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>13390.87793</v>
+        <v>18053.65726</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>6297.09954</v>
+        <v>11020.5393</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2186.06734</v>
+        <v>6170.050099999999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1987.71632</v>
+        <v>5473.0389</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>2122.34855</v>
+        <v>16082.16201</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>10339.05521</v>
+        <v>29624.74641</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>10893.3399</v>
+        <v>57608.57876999999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>10583.01473</v>
+        <v>45733.89232</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>15527.34061</v>
+        <v>60496.76482</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>52202.34337</v>
+        <v>147463.63281</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>57377.72392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>230517.75718</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>791775.925</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>5750.4586</v>
+        <v>6067.469800000001</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>6498.43241</v>
+        <v>8649.288500000001</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>7949.93713</v>
+        <v>10929.98296</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>8113.985269999999</v>
+        <v>22370.21428</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>6560.02988</v>
+        <v>7923.0764</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>7717.00538</v>
+        <v>8908.310549999998</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>8107.13821</v>
+        <v>8096.16196</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>8634.813779999999</v>
+        <v>9435.45494</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>11167.76719</v>
+        <v>12443.48552</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>18433.58293</v>
+        <v>23647.95624</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>16933.04812</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>21973.45561</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>41191.743</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>825092.11871</v>
+        <v>1226706.17687</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>950476.42053</v>
+        <v>1463130.27728</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1390529.44319</v>
+        <v>2062323.39037</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1514051.65537</v>
+        <v>2276029.16971</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2000225.93524</v>
+        <v>3322599.57618</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2451254.92401</v>
+        <v>3926163.08682</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2770947.26396</v>
+        <v>4156826.9639</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3285150.13355</v>
+        <v>4906122.041470001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3904145.20275</v>
+        <v>5695351.787200001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5877086.355370001</v>
+        <v>10540946.59103</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6326297.43766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>10110215.89672</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>10925196.519</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>556154.48146</v>
+        <v>805291.1581799999</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>637922.1939600001</v>
+        <v>897621.7017100001</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>950408.4500999999</v>
+        <v>1337637.72195</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1062976.79467</v>
+        <v>1454548.67472</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1313031.65963</v>
+        <v>1918494.2107</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1665016.04894</v>
+        <v>2217195.26431</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1843197.72126</v>
+        <v>2334787.17007</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2246817.36818</v>
+        <v>2896815.83675</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>2945454.64434</v>
+        <v>3740514.30088</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4013377.70074</v>
+        <v>5835032.023549999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>4324097.54949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5785033.54349</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6901028.139</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>6661.96205</v>
+        <v>29998.44787</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>8031.605610000001</v>
+        <v>27315.71544</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>22881.96513</v>
+        <v>59884.92369</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>31532.33776</v>
+        <v>61689.44391</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>50952.45481</v>
+        <v>81523.84775</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>46722.50015000001</v>
+        <v>82170.05304000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>78407.76192</v>
+        <v>75220.86839</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>46157.4037</v>
+        <v>84184.77770000001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>164162.84742</v>
+        <v>226815.06206</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>294607.45985</v>
+        <v>588112.37313</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>139673.03273</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>137507.66501</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>752037.249</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>98432.79784999999</v>
+        <v>110567.48685</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>120770.50827</v>
+        <v>140471.21562</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>245467.4592</v>
+        <v>334293.7955900001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>192736.85148</v>
+        <v>241354.83456</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>221152.71155</v>
+        <v>288640.68767</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>389990.13007</v>
+        <v>448269.39594</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>240841.42406</v>
+        <v>251621.43453</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>204827.89828</v>
+        <v>254689.08367</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>314811.08251</v>
+        <v>394088.29744</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>696700.07683</v>
+        <v>733602.8358799999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>939234.39298</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1015606.19535</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1170760.901</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>445126.10787</v>
+        <v>658607.3613499999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>508980.98381</v>
+        <v>718321.61225</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>656028.65618</v>
+        <v>915690.42692</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>816818.51828</v>
+        <v>1128477.4365</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1007704.77452</v>
+        <v>1515461.67909</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1212339.12986</v>
+        <v>1641768.28513</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1489072.29287</v>
+        <v>1965912.93106</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1971707.77982</v>
+        <v>2508110.695480001</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>2449637.48554</v>
+        <v>3088871.50141</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2971363.3941</v>
+        <v>4489946.03075</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>3202462.57671</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4622607.52405</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>4939714.502</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>5933.613689999999</v>
+        <v>6117.86211</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>139.09627</v>
+        <v>11513.1584</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>26030.36959</v>
+        <v>27768.57575</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>21889.08715</v>
+        <v>23026.95975</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>33221.71875</v>
+        <v>32867.99619</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>15964.28886</v>
+        <v>44987.5302</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>34876.24241</v>
+        <v>42031.93609</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>24124.28638</v>
+        <v>49831.2799</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>16843.22887</v>
+        <v>30739.43997</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>50706.76995999999</v>
+        <v>23370.78379</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>42727.54707</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>9312.159079999999</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>38515.487</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>268937.63725</v>
+        <v>421415.01869</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>312554.22657</v>
+        <v>565508.5755700001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>440120.9930900001</v>
+        <v>724685.66842</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>451074.8607</v>
+        <v>821480.49499</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>687194.27561</v>
+        <v>1404105.36548</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>786238.87507</v>
+        <v>1708967.82251</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>927749.5427</v>
+        <v>1822039.79383</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1038332.76537</v>
+        <v>2009306.20472</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>958690.5584099999</v>
+        <v>1954837.48632</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1863708.65463</v>
+        <v>4705914.56748</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>2002199.88817</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4325182.35323</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4024168.38</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>212072.63613</v>
+        <v>300523.78408</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>232144.94776</v>
+        <v>349091.11718</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>328825.45878</v>
+        <v>460178.29333</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>381467.41201</v>
+        <v>584587.1746099999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>430574.70469</v>
+        <v>666694.48294</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>511393.24464</v>
+        <v>787939.59531</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>683639.9092999999</v>
+        <v>997552.6392699999</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>729575.00564</v>
+        <v>1054285.77964</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>712183.1599600001</v>
+        <v>973639.6232299999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1090352.72174</v>
+        <v>1753728.96027</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1082701.24045</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1495631.17811</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1782347.129</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>0.7150700000000001</v>
+        <v>0</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>318.41793</v>
+        <v>0</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>254.74178</v>
+        <v>415.01895</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>4.23695</v>
+        <v>18468.45524</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>508.96728</v>
+        <v>0</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>9.823780000000001</v>
+        <v>521.8286900000001</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>226.17358</v>
+        <v>11691.23195</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>1217.35027</v>
+        <v>0</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>5631.69714</v>
+        <v>258.71229</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>557.96389</v>
+        <v>19507.05246</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1228.04571</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>708.22151</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>11468.69</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>15033.01347</v>
+        <v>29554.92773</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>16445.71726</v>
+        <v>36510.27931000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>41610.44022</v>
+        <v>85866.97718999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>41507.04256</v>
+        <v>77103.62422</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>35786.54527</v>
+        <v>112400.11918</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>56281.8416</v>
+        <v>124975.2817</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>57179.73407</v>
+        <v>132569.45837</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>96825.50316999998</v>
+        <v>140708.75519</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>119004.10357</v>
+        <v>179403.59608</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>138307.043</v>
+        <v>188120.28339</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>135182.565</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>164515.44658</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>207930.172</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>197038.90759</v>
+        <v>270968.85635</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>215380.81257</v>
+        <v>312580.83787</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>286960.27678</v>
+        <v>373896.29719</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>339956.1325</v>
+        <v>489015.09515</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>394279.19214</v>
+        <v>554294.36376</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>455101.57926</v>
+        <v>662442.4849200001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>626234.0016500001</v>
+        <v>853291.9489499999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>631532.1522</v>
+        <v>913577.0244499999</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>587547.35925</v>
+        <v>793977.3148599999</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>951487.7148499999</v>
+        <v>1546101.62442</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>946290.62974</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1330407.51002</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1562948.267</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>56865.00112</v>
+        <v>120891.23461</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>80409.27881</v>
+        <v>216417.45839</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>111295.53431</v>
+        <v>264507.37509</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>69607.44869</v>
+        <v>236893.32038</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>256619.57092</v>
+        <v>737410.8825400001</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>274845.63043</v>
+        <v>921028.2272</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>244109.6334</v>
+        <v>824487.1545599999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>308757.75973</v>
+        <v>955020.4250800001</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>246507.39845</v>
+        <v>981197.86309</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>773355.9328899999</v>
+        <v>2952185.60721</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>919498.64772</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2829551.17512</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2241821.251</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>117409.43276</v>
+        <v>212266.1306</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>171615.71534</v>
+        <v>248860.49244</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>187073.4613</v>
+        <v>253527.13823</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>232026.57845</v>
+        <v>379558.0271599999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>299476.84385</v>
+        <v>1010012.4863</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>401359.48164</v>
+        <v>1001562.93837</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>513810.55252</v>
+        <v>1124603.13914</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>493306.10825</v>
+        <v>1510460.6993</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>477728.88843</v>
+        <v>1121541.83224</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>2108427.45432</v>
+        <v>8323293.34426</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>1345512.71569</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3862099.07333</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>5964333.256</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>3164.51976</v>
+        <v>159.67288</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>4438.33318</v>
+        <v>1082.21774</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>4662.06647</v>
+        <v>603.68274</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>3919.29693</v>
+        <v>1956.88238</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>34749.62605</v>
+        <v>9175.913640000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>35435.58476999999</v>
+        <v>6193.7079</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>66440.15187</v>
+        <v>8360.918540000001</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>35703.31249</v>
+        <v>176685.18991</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>37768.81423</v>
+        <v>7073.83171</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>72644.95447</v>
+        <v>58486.91267000001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>73006.27937</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>30049.8883</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>229164.522</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>465.12749</v>
+        <v>125.97245</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>15727.01842</v>
+        <v>0</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>20.59128</v>
+        <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>118.917</v>
+        <v>25380.77551</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>8666.689219999998</v>
+        <v>5.620439999999999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>111.24042</v>
+        <v>2935.67282</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>13.12386</v>
+        <v>48693.73725999999</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>3622.99687</v>
+        <v>49987.37854999999</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>31069.6991</v>
+        <v>267562.92434</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>11093.64422</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>439445.03859</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>118042.215</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>17580.23194</v>
+        <v>47411.61377</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>15339.87427</v>
+        <v>25486.98705</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>19914.24297</v>
+        <v>29284.43715</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>23939.69432</v>
+        <v>36073.68175</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>27407.18469</v>
+        <v>63496.94781000001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>41403.28137999999</v>
+        <v>98069.53307</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>48775.51774</v>
+        <v>102899.43392</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>56816.18692</v>
+        <v>112332.43323</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>64458.58811</v>
+        <v>126955.62713</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>170109.21239</v>
+        <v>319221.59619</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>177613.2762</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>310554.28665</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>530075.58</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>153.97057</v>
+        <v>630.56513</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>161.9885</v>
+        <v>282.56427</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>172.60595</v>
+        <v>309.56999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>475.81741</v>
+        <v>653.32227</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>148.81159</v>
+        <v>147.36599</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>371.49117</v>
+        <v>230.72552</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>18.27495</v>
+        <v>258.91131</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>3401.66271</v>
+        <v>389.75008</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>24.92101</v>
+        <v>396.32735</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>1288.62774</v>
+        <v>1495.07074</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>558.43875</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1418.09367</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>928.447</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>1343.57918</v>
+        <v>9346.515380000001</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>998.13639</v>
+        <v>4054.00845</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1043.8002</v>
+        <v>5644.22998</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>4727.323300000001</v>
+        <v>5717.845490000001</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>3892.34632</v>
+        <v>9569.437260000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>6672.68751</v>
+        <v>15856.19285</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>7097.63259</v>
+        <v>11355.86731</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>12433.95341</v>
+        <v>18541.87381</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>12209.45963</v>
+        <v>67435.51434000001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>14341.71713</v>
+        <v>25545.9347</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>33255.17904</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>48417.04111</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>30733.334</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1490.66694</v>
+        <v>2034.89769</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1113.80094</v>
+        <v>8000.54267</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1147.42395</v>
+        <v>6219.74991</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>38876.67003</v>
+        <v>5243.313419999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>33925.759</v>
+        <v>292014.04086</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>8189.51331</v>
+        <v>81886.87106999999</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>36289.43938</v>
+        <v>2378.69661</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>23463.73544</v>
+        <v>16039.42471</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>4943.562</v>
+        <v>29352.74378</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>135284.41579</v>
+        <v>21523.58272</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>49033.40343999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>240995.95868</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>338824.754</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>59162.21445</v>
+        <v>131747.41958</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>55630.02755000001</v>
+        <v>147136.88589</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>75639.39506</v>
+        <v>137208.02876</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>60780.24430999999</v>
+        <v>253209.20257</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>109965.3705</v>
+        <v>544995.5459800001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>160587.8974</v>
+        <v>692658.85673</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>223913.11358</v>
+        <v>871696.06588</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>208519.31815</v>
+        <v>994236.46246</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>190475.83804</v>
+        <v>599800.51088</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1542068.60616</v>
+        <v>7229845.44974</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>721230.1475899999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2548023.61464</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>4470780.75</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0.66487</v>
+        <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>11.46865</v>
+        <v>59.90476</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>2.0767</v>
@@ -2054,37 +2100,42 @@
         <v>5.614109999999999</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>196.76197</v>
+        <v>3.1422</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>42.94946</v>
+        <v>43.96153</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>106.85485</v>
+        <v>2.87378</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>149.12601</v>
+        <v>16.20992</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>103.87202</v>
+        <v>55585.42373999999</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>108.99055</v>
+        <v>12303.34531</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>228.01846</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>630.67673</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>613.85</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>1.64156</v>
+        <v>0.14156</v>
       </c>
       <c r="E34" s="48" t="n">
         <v>72.19508</v>
@@ -2093,16 +2144,16 @@
         <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>62.75265</v>
+        <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="I34" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="I34" s="48" t="n">
-        <v>0.89</v>
-      </c>
       <c r="J34" s="48" t="n">
-        <v>0</v>
+        <v>43.7848</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>0</v>
@@ -2111,295 +2162,335 @@
         <v>0</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>0.03164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>34048.45756</v>
+        <v>20809.47372</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>78193.42588</v>
+        <v>62757.24005000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>84410.65492</v>
+        <v>74183.16791999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>99281.32676000001</v>
+        <v>76698.16517000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>89009.31408</v>
+        <v>65229.31705000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>139989.38742</v>
+        <v>106616.86926</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>131057.43714</v>
+        <v>124714.69897</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>152805.68926</v>
+        <v>143481.83312</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>164120.83652</v>
+        <v>184954.47476</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>141511.23099</v>
+        <v>387308.52785</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>279494.29698</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>242564.47496</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>245169.804</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>72724.04659</v>
+        <v>153222.77066</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>123537.63914</v>
+        <v>203351.40853</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>183664.74362</v>
+        <v>326935.4935800001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>148386.62636</v>
+        <v>256936.74502</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>242045.03557</v>
+        <v>943575.1331399999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>256743.67128</v>
+        <v>699537.08808</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>400999.16721</v>
+        <v>1090215.35848</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>412063.91433</v>
+        <v>1671251.33452</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>406717.75047</v>
+        <v>1389558.02578</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2324808.80213</v>
+        <v>11011867.92196</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1294837.01382</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>3683632.486659999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>9022916.244000001</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1747.26707</v>
+        <v>1664.63914</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>780.6449299999999</v>
+        <v>718.5399699999999</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>361.30607</v>
+        <v>340.79156</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>660.5543299999999</v>
+        <v>1710.41544</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>425.57098</v>
+        <v>70.25739</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>708.2416800000001</v>
+        <v>498.74335</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>221.94951</v>
+        <v>209.6988</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>117.55073</v>
+        <v>352.6784499999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2292.66472</v>
+        <v>2391.00255</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>8195.956759999999</v>
+        <v>7982.32719</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1094.78201</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>5559.75429</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>19687.796</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>7748.59429</v>
+        <v>13697.4772</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>4922.156120000001</v>
+        <v>11082.18037</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>7804.52593</v>
+        <v>10114.15575</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>12258.67504</v>
+        <v>22228.35537</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>11685.52073</v>
+        <v>28831.57158</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>12465.17204</v>
+        <v>28452.04749</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>22063.25926</v>
+        <v>33941.92449</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>36941.07898999999</v>
+        <v>70686.27185999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>31391.63885</v>
+        <v>81886.73388</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>45319.91469</v>
+        <v>70134.82174000001</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>48846.01895000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>101801.51111</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>96267.772</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>12.21233</v>
+        <v>196.74094</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>128.33672</v>
+        <v>1398.80694</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1249.56441</v>
+        <v>1992.47259</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>36129.43225</v>
+        <v>2030.73801</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>2277.19745</v>
+        <v>2932.23007</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>7779.16361</v>
+        <v>35317.47753</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>4724.156559999999</v>
+        <v>11481.37584</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>19620.58936</v>
+        <v>2359.22979</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>838.5643699999998</v>
+        <v>1897.93234</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>1128.99453</v>
+        <v>73849.97983999999</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>61459.04048999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>189.18444</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>15125.767</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>49940.33372</v>
+        <v>124640.2024</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>54981.63664</v>
+        <v>136098.86881</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>121374.17999</v>
+        <v>249588.0885</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>43612.42847</v>
+        <v>154063.94476</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>181904.58846</v>
+        <v>848883.7977699999</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>167885.97863</v>
+        <v>556399.5425900001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>282948.59267</v>
+        <v>954648.38437</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>258311.19635</v>
+        <v>1423710.55645</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>255136.89803</v>
+        <v>1123161.67995</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>2181114.88315</v>
+        <v>10682738.34791</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1037581.81603</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3457756.35545</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>8753732.603</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>148.49911</v>
+        <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>168.90539</v>
+        <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>136.30462</v>
+        <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>11.39917</v>
+        <v>1.78045</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>1827.31932</v>
+        <v>17.16287</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>252.57225</v>
+        <v>13.68399</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>7152.08014</v>
+        <v>28.35613</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>5379.54863</v>
+        <v>0.47687</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>533.0544200000001</v>
+        <v>54402.01902</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>3095.14219</v>
+        <v>10322.58327</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>573.19299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>508.76883</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>537.05</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>0.07183</v>
+        <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>13.18168</v>
+        <v>0</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>0</v>
@@ -2411,607 +2502,685 @@
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>6.00816</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>0.76386</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>13127.06824</v>
+        <v>13023.71098</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>62555.95934</v>
+        <v>54053.01244</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>52725.68092</v>
+        <v>64899.98518</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>55714.1371</v>
+        <v>76901.51099</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>43924.83863000001</v>
+        <v>62840.11345999999</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>67652.54307</v>
+        <v>78855.59313000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>83883.12091000001</v>
+        <v>89905.61885000001</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>91693.95027</v>
+        <v>174142.1211</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>116524.93007</v>
+        <v>125818.65804</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>85953.91081</v>
+        <v>166839.86201</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>145281.39949</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>117816.91254</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>137565.256</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>39916.32659</v>
+        <v>115661.75626</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>37223.56272</v>
+        <v>127521.40881</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>49341.22204</v>
+        <v>230911.05747</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>49510.734</v>
+        <v>188494.43679</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>104042.51936</v>
+        <v>449321.27759</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>98874.54226</v>
+        <v>476454.73408</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>113754.66116</v>
+        <v>548277.09921</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>116882.55441</v>
+        <v>713535.41611</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>130041.18431</v>
+        <v>780548.73349</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>736268.26326</v>
+        <v>3073156.80356</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>599913.4834800001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2480308.956879999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>3950681.746</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>31041.7499</v>
+        <v>90764.26678999999</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>28742.83392</v>
+        <v>99469.83253</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>39924.77863</v>
+        <v>155311.99888</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>38206.44528</v>
+        <v>129973.76967</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>74054.38118000001</v>
+        <v>256129.51161</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>84318.36315999999</v>
+        <v>261725.99723</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>101101.42735</v>
+        <v>314502.20654</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>104440.70558</v>
+        <v>440555.95905</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>106052.00217</v>
+        <v>517865.89405</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>441277.64266</v>
+        <v>1899871.11898</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>423538.50248</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1392491.59807</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2016147.152</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>8874.57669</v>
+        <v>24897.48947</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>8480.728800000001</v>
+        <v>28051.57628</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>9416.44341</v>
+        <v>75599.05859</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>11304.28872</v>
+        <v>58520.66712</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>29988.13818</v>
+        <v>193191.76598</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>14556.1791</v>
+        <v>214728.73685</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>12653.23381</v>
+        <v>233774.89267</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>12441.84883</v>
+        <v>272979.45706</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>23989.18214</v>
+        <v>262682.83944</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>294990.6206</v>
+        <v>1173285.68458</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>176374.981</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1087817.35881</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1934534.594</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>61634.06069999999</v>
+        <v>64272.83829000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>91263.79229</v>
+        <v>134405.13349</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>65363.02995</v>
+        <v>-39812.03773</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>103736.66678</v>
+        <v>171020.16573</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>210008.85984</v>
+        <v>354526.95811</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>320586.8985299999</v>
+        <v>746599.34341</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>243166.35755</v>
+        <v>310597.8360099999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>273117.39924</v>
+        <v>80694.37375</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>187477.3521</v>
+        <v>-67367.06393999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-179293.67818</v>
+        <v>-2809545.77405</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>370260.86611</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>527708.8049100001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-4767443.483</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>15140.70983</v>
+        <v>25571.75376</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>16457.55565</v>
+        <v>14636.2041</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>19256.90389</v>
+        <v>15009.07147</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>69112.71062</v>
+        <v>65366.33555999999</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>59163.37394</v>
+        <v>63682.81969</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>107351.13611</v>
+        <v>69665.11415000001</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>101011.85134</v>
+        <v>158433.81471</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>89395.19119999999</v>
+        <v>124161.61402</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>91862.74463</v>
+        <v>226080.2611</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>175712.69093</v>
+        <v>755304.8330600001</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>533873.09621</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>634104.33153</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>1268838.037</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>249.56508</v>
+        <v>177.11579</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>329.71116</v>
+        <v>1252.62999</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>683.03847</v>
+        <v>1249.77735</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>766.7542900000001</v>
+        <v>1146.95664</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>1862.78148</v>
+        <v>2754.12715</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>730.8590700000001</v>
+        <v>7898.046839999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1712.34464</v>
+        <v>1900.65226</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>710.2213399999999</v>
+        <v>2059.9462</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1899.56055</v>
+        <v>16429.55801</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1783.73821</v>
+        <v>3008.82924</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>510.54161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1883.98797</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5440.207</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>14891.14475</v>
+        <v>25394.63797</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>16127.84449</v>
+        <v>13383.57411</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>18573.86542</v>
+        <v>13759.29412</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>68345.95633</v>
+        <v>64219.37892</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>57300.59245999999</v>
+        <v>60928.69253999999</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>106620.27704</v>
+        <v>61767.06731</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>99299.5067</v>
+        <v>156533.16245</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>88684.96986</v>
+        <v>122101.66782</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>89963.18408000001</v>
+        <v>209650.70309</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>173928.95272</v>
+        <v>752296.00382</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>533362.5546</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>632220.34356</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>1263397.83</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>6917.94886</v>
+        <v>34088.20036</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>11220.60917</v>
+        <v>16756.27554</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>55535.20418</v>
+        <v>115720.97522</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>32543.09914</v>
+        <v>46367.86019</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>29069.76343</v>
+        <v>40376.3907</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>165438.08342</v>
+        <v>138929.67627</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>54472.46255</v>
+        <v>89942.86524000001</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>106164.0032</v>
+        <v>130544.63444</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>38811.87821</v>
+        <v>568610.71233</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>293241.61271</v>
+        <v>481816.5266999999</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>185852.37903</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>486276.49857</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>394842.898</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2.50045</v>
+        <v>8565.29341</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>146.01386</v>
+        <v>3457.89798</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>0</v>
+        <v>1151.38645</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>6.4</v>
+        <v>906.15176</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>388.30634</v>
+        <v>3995.8808</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>587.6931499999999</v>
+        <v>805.66162</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>521.98062</v>
+        <v>2086.91586</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>116.21122</v>
+        <v>1667.69574</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>112.16074</v>
+        <v>487.71308</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>10691.23845</v>
+        <v>13565.39084</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>4447.51594</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>3564.69273</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1286.841</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>615.82988</v>
+        <v>314.91461</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2895.10639</v>
+        <v>796.8635800000001</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1245.18399</v>
+        <v>602.12447</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1463.95183</v>
+        <v>873.0877599999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>740.65924</v>
+        <v>1294.78194</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2621.99711</v>
+        <v>1886.67573</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3186.25197</v>
+        <v>2950.64764</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>713.45611</v>
+        <v>2644.77416</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>5043.581720000001</v>
+        <v>5890.20845</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>2357.51086</v>
+        <v>4917.84339</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1768.1915</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>12520.6969</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>21457.634</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6299.618530000001</v>
+        <v>25207.99234</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>8179.48892</v>
+        <v>12501.51398</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>54290.02019</v>
+        <v>113967.4643</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>31072.74731</v>
+        <v>44588.62067</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>27940.79785</v>
+        <v>35085.72796</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>162228.39316</v>
+        <v>136237.33892</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>50764.22996</v>
+        <v>84905.30174000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>105334.33587</v>
+        <v>126232.16454</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>33656.13575</v>
+        <v>562232.7908000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>280192.8634</v>
+        <v>463333.29247</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>179636.67159</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>470191.1089399999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>372098.423</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>69856.82167</v>
+        <v>55756.39169</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>96500.73877</v>
+        <v>132285.06205</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>29084.72966</v>
+        <v>-140523.94148</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>140306.27826</v>
+        <v>190018.6411</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>240102.47035</v>
+        <v>377833.3871</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>262499.95122</v>
+        <v>677334.78129</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>289705.74634</v>
+        <v>379088.78548</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>256348.58724</v>
+        <v>74311.35333000001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>240528.21852</v>
+        <v>-409897.51517</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-296822.59996</v>
+        <v>-2536057.46769</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>718281.58329</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>675536.6378699999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-3893448.344</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>15642.8941</v>
+        <v>24884.92326</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>20290.9455</v>
+        <v>31614.07849</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>29227.36177</v>
+        <v>39521.02061</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>31652.83877</v>
+        <v>48938.62124</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>49089.96962</v>
+        <v>87726.93862</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>58220.17782</v>
+        <v>115470.38785</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>62683.88651</v>
+        <v>118449.40288</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>89209.33100999999</v>
+        <v>118006.27278</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>69584.84623000001</v>
+        <v>104393.72555</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>150107.7651</v>
+        <v>235715.76265</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>166575.7423</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>230353.83127</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>228152.29</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>54213.92757</v>
+        <v>30871.46843</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>76209.79327000001</v>
+        <v>100670.98356</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-142.6321099999994</v>
+        <v>-180044.96209</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>108653.43949</v>
+        <v>141080.01986</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>191012.50073</v>
+        <v>290106.44848</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>204279.7734</v>
+        <v>561864.39344</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>227021.85983</v>
+        <v>260639.3826</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>167139.25623</v>
+        <v>-43694.91944999999</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>170943.37229</v>
+        <v>-514291.24072</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-446930.36506</v>
+        <v>-2771773.23034</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>551705.8409900001</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>445182.8066</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-4121600.634</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
+        <v>100</v>
+      </c>
+      <c r="D59" s="35" t="n">
+        <v>122</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>170</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>190</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>195</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>222</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>225</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>260</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>279</v>
+      </c>
+      <c r="L59" s="35" t="n">
         <v>247</v>
       </c>
-      <c r="D59" s="35" t="n">
-        <v>276</v>
-      </c>
-      <c r="E59" s="35" t="n">
-        <v>340</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>401</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>471</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>584</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>559</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>634</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>710</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>485</v>
-      </c>
       <c r="M59" s="35" t="n">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>227</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>